--- a/results/AdaBoostClassifier_SVC.xlsx
+++ b/results/AdaBoostClassifier_SVC.xlsx
@@ -1,37 +1,136 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Best Estimator</t>
+  </si>
+  <si>
+    <t>Best Score</t>
+  </si>
+  <si>
+    <t>Best Params</t>
+  </si>
+  <si>
+    <t>Validation Score</t>
+  </si>
+  <si>
+    <t>Y Val (Validation)</t>
+  </si>
+  <si>
+    <t>Y Pred (Validation)</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>CV Train Mean</t>
+  </si>
+  <si>
+    <t>CV Train STD</t>
+  </si>
+  <si>
+    <t>CV Test Mean</t>
+  </si>
+  <si>
+    <t>CV Test STD</t>
+  </si>
+  <si>
+    <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 AdaBoostClassifier(algorithm='SAMME',
+                                    estimator=SVC(C=0.0001,
+                                                  class_weight='balanced',
+                                                  kernel='linear',
+                                                  random_state=42),
+                                    n_estimators=5, random_state=42))])</t>
+  </si>
+  <si>
+    <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
+                ('model',
+                 AdaBoostClassifier(algorithm='SAMME',
+                                    estimator=SVC(C=0.001, kernel='linear',
+                                                  random_state=42),
+                                    random_state=42))])</t>
+  </si>
+  <si>
+    <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 AdaBoostClassifier(algorithm='SAMME',
+                                    estimator=SVC(C=0.0001, kernel='linear',
+                                                  random_state=42),
+                                    n_estimators=10, random_state=42))])</t>
+  </si>
+  <si>
+    <t>{'selector': None, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.0001}</t>
+  </si>
+  <si>
+    <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
+  </si>
+  <si>
+    <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 10, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
+  </si>
+  <si>
+    <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+  </si>
+  <si>
+    <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
+  </si>
+  <si>
+    <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+  </si>
+  <si>
+    <t>[0 0 1 0 1 1 1 1 1 1 1 1]</t>
+  </si>
+  <si>
+    <t>[1 1 1 1 1 0 1 1 0 1 1 1]</t>
+  </si>
+  <si>
+    <t>[1 0 1 1 1 1 0 0 1 0 0 1]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +145,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,227 +461,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Best Estimator</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Best Score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Best Params</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Validation Score</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Y Val (Validation)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y Pred (Validation)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
-        </is>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 AdaBoostClassifier(algorithm='SAMME',
-                                    estimator=SVC(C=0.0001, random_state=42),
-                                    n_estimators=10, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.742245989304813</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0 1 0 1 1 1 1 1 0 0 1 0]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.7526701868621172</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.01309867711884831</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7197912304077382</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0389590198033429</v>
+      <c r="H2">
+        <v>0.6528571428571429</v>
+      </c>
+      <c r="I2">
+        <v>0.02485891440890875</v>
+      </c>
+      <c r="J2">
+        <v>0.6024489795918369</v>
+      </c>
+      <c r="K2">
+        <v>0.04434576521648909</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 AdaBoostClassifier(algorithm='SAMME',
-                                    estimator=SVC(C=1, kernel='linear',
-                                                  random_state=42),
-                                    n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7422459893048128</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 0 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.6476190476190476</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>0.625</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.7501583684356559</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.01477438230987078</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7125940443365942</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.04004513027708916</v>
+      <c r="H3">
+        <v>0.6499654934437543</v>
+      </c>
+      <c r="I3">
+        <v>0.02625453816369563</v>
+      </c>
+      <c r="J3">
+        <v>0.5948930296756388</v>
+      </c>
+      <c r="K3">
+        <v>0.03821040835187491</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model',
-                 AdaBoostClassifier(algorithm='SAMME',
-                                    estimator=SVC(C=5, kernel='poly',
-                                                  random_state=42),
-                                    random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.7467914438502673</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': StandardScaler(), 'model__n_estimators': 50, 'model__estimator__kernel': 'poly', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1 0 0 0 1 0 1 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.638095238095238</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4">
         <v>42</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.762406458333787</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.01532409144390871</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7131208985060522</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.03922346649172483</v>
+      <c r="H4">
+        <v>0.6325793650793654</v>
+      </c>
+      <c r="I4">
+        <v>0.02039916704256223</v>
+      </c>
+      <c r="J4">
+        <v>0.5704761904761911</v>
+      </c>
+      <c r="K4">
+        <v>0.04647588463795542</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/AdaBoostClassifier_SVC.xlsx
+++ b/results/AdaBoostClassifier_SVC.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Best Estimator</t>
-  </si>
-  <si>
-    <t>Best Score</t>
-  </si>
-  <si>
-    <t>Best Params</t>
-  </si>
-  <si>
-    <t>Validation Score</t>
-  </si>
-  <si>
-    <t>Y Val (Validation)</t>
-  </si>
-  <si>
-    <t>Y Pred (Validation)</t>
-  </si>
-  <si>
-    <t>Seed</t>
-  </si>
-  <si>
-    <t>CV Train Mean</t>
-  </si>
-  <si>
-    <t>CV Train STD</t>
-  </si>
-  <si>
-    <t>CV Test Mean</t>
-  </si>
-  <si>
-    <t>CV Test STD</t>
-  </si>
-  <si>
-    <t>Pipeline(steps=[('scaler', None), ('selector', None),
-                ('model',
-                 AdaBoostClassifier(algorithm='SAMME',
-                                    estimator=SVC(C=0.0001,
-                                                  class_weight='balanced',
-                                                  kernel='linear',
-                                                  random_state=42),
-                                    n_estimators=5, random_state=42))])</t>
-  </si>
-  <si>
-    <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model',
-                 AdaBoostClassifier(algorithm='SAMME',
-                                    estimator=SVC(C=0.001, kernel='linear',
-                                                  random_state=42),
-                                    random_state=42))])</t>
-  </si>
-  <si>
-    <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 AdaBoostClassifier(algorithm='SAMME',
-                                    estimator=SVC(C=0.0001, kernel='linear',
-                                                  random_state=42),
-                                    n_estimators=10, random_state=42))])</t>
-  </si>
-  <si>
-    <t>{'selector': None, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.0001}</t>
-  </si>
-  <si>
-    <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
-  </si>
-  <si>
-    <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 10, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
-  </si>
-  <si>
-    <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
-  </si>
-  <si>
-    <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
-  </si>
-  <si>
-    <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-  </si>
-  <si>
-    <t>[0 0 1 0 1 1 1 1 1 1 1 1]</t>
-  </si>
-  <si>
-    <t>[1 1 1 1 1 0 1 1 0 1 1 1]</t>
-  </si>
-  <si>
-    <t>[1 0 1 1 1 1 0 0 1 0 0 1]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -461,154 +420,325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Best Estimator</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Best Score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Params</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Y Val (Validation)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Y Pred (Validation)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Mean</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train STD</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Mean</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test STD</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 AdaBoostClassifier(algorithm='SAMME',
+                                    estimator=SVC(C=1, kernel='linear',
+                                                  random_state=42),
+                                    random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6761904761904762</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[0 0 1 1 0 1 1 1 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>77</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6821428571428573</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03010416600554102</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6034285714285715</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0427233940539338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 AdaBoostClassifier(algorithm='SAMME',
+                                    estimator=SVC(C=5, class_weight='balanced',
+                                                  kernel='poly',
+                                                  random_state=42),
+                                    n_estimators=10, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6285714285714287</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 10, 'model__estimator__kernel': 'poly', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 5}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6401993355481728</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.02063331966471188</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.572093023255814</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.05208286796595689</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 AdaBoostClassifier(algorithm='SAMME',
+                                    estimator=SVC(C=0.0001, kernel='linear',
+                                                  random_state=42),
+                                    random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7777777777777777</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>42</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6243722943722945</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.02525566554573545</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5724675324675323</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.04768581921796478</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a64228c40&gt;),
+                ('model',
+                 AdaBoostClassifier(algorithm='SAMME',
+                                    estimator=SVC(C=1, kernel='linear',
+                                                  random_state=42),
+                                    n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f45a9a17c40&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7058823529411764</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 0 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H5" t="n">
+        <v>0.6228212039532794</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.01609014664833479</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5761006289308176</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.04395489702083889</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 AdaBoostClassifier(algorithm='SAMME',
+                                    estimator=SVC(C=5, random_state=42),
+                                    n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6285714285714287</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 5, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>14</v>
       </c>
-      <c r="D2">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0.6528571428571429</v>
-      </c>
-      <c r="I2">
-        <v>0.02485891440890875</v>
-      </c>
-      <c r="J2">
-        <v>0.6024489795918369</v>
-      </c>
-      <c r="K2">
-        <v>0.04434576521648909</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>0.6476190476190476</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>0.625</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>0.6499654934437543</v>
-      </c>
-      <c r="I3">
-        <v>0.02625453816369563</v>
-      </c>
-      <c r="J3">
-        <v>0.5948930296756388</v>
-      </c>
-      <c r="K3">
-        <v>0.03821040835187491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>0.638095238095238</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>0.7999999999999999</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4">
-        <v>42</v>
-      </c>
-      <c r="H4">
-        <v>0.6325793650793654</v>
-      </c>
-      <c r="I4">
-        <v>0.02039916704256223</v>
-      </c>
-      <c r="J4">
-        <v>0.5704761904761911</v>
-      </c>
-      <c r="K4">
-        <v>0.04647588463795542</v>
+      <c r="H6" t="n">
+        <v>0.6546720575022462</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0265453580992727</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5976639712488769</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.03923344966543659</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results/AdaBoostClassifier_SVC.xlsx
+++ b/results/AdaBoostClassifier_SVC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,73 +493,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+                ('model',
+                 AdaBoostClassifier(algorithm='SAMME',
+                                    estimator=SVC(C=0.0001,
+                                                  class_weight='balanced',
+                                                  random_state=42),
+                                    random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7067226890756302</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.0001}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>42</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7407198139518781</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.009654360290880081</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6676344019542549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.03356839168957652</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
                  SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
                  AdaBoostClassifier(algorithm='SAMME',
                                     estimator=SVC(C=1, kernel='linear',
                                                   random_state=42),
-                                    random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6761904761904762</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 1 1 1 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>77</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.6821428571428573</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.03010416600554102</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6034285714285715</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0427233940539338</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 AdaBoostClassifier(algorithm='SAMME',
-                                    estimator=SVC(C=5, class_weight='balanced',
-                                                  kernel='poly',
-                                                  random_state=42),
                                     n_estimators=10, random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6285714285714287</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 10, 'model__estimator__kernel': 'poly', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 5}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -579,163 +577,111 @@
         <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6401993355481728</v>
+        <v>0.7502505988980421</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02063331966471188</v>
+        <v>0.007917362630000088</v>
       </c>
       <c r="J3" t="n">
-        <v>0.572093023255814</v>
+        <v>0.6864953516269306</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05208286796595689</v>
+        <v>0.02239495456042716</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
                  AdaBoostClassifier(algorithm='SAMME',
-                                    estimator=SVC(C=0.0001, kernel='linear',
+                                    estimator=SVC(C=1, kernel='poly',
                                                   random_state=42),
-                                    random_state=42))])</t>
+                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.7091359620771385</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__kernel': 'poly', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7777777777777777</v>
+        <v>0.8</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 1 0 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6243722943722945</v>
+        <v>0.7395716948423837</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02525566554573545</v>
+        <v>0.01262682923537152</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5724675324675323</v>
+        <v>0.6846549031233393</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04768581921796478</v>
+        <v>0.03677024814826513</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a64228c40&gt;),
-                ('model',
-                 AdaBoostClassifier(algorithm='SAMME',
-                                    estimator=SVC(C=1, kernel='linear',
-                                                  random_state=42),
-                                    n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f45a9a17c40&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__kernel': 'linear', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7058823529411764</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 0 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.6228212039532794</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.01609014664833479</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5761006289308176</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.04395489702083889</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
                  AdaBoostClassifier(algorithm='SAMME',
                                     estimator=SVC(C=5, random_state=42),
-                                    n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6285714285714287</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 5, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+                                    random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__kernel': 'rbf', 'model__estimator__class_weight': None, 'model__estimator__C': 5}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.6546720575022462</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0265453580992727</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5976639712488769</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.03923344966543659</v>
+      <c r="G5" t="n">
+        <v>99</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7577635305776841</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.004703256831887954</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7567848782690412</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01939938346559437</v>
       </c>
     </row>
   </sheetData>
